--- a/ky/downloads/data-excel/3.c.1.xlsx
+++ b/ky/downloads/data-excel/3.c.1.xlsx
@@ -1049,20 +1049,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="43" style="14" customWidth="1"/>
+    <col min="1" max="3" width="38.28515625" style="14" customWidth="1"/>
     <col min="4" max="10" width="9.140625" style="14" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.75" customHeight="1">
+    <row r="1" spans="1:17" ht="38.25" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1084,8 +1085,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1"/>
-    <row r="4" spans="1:16" ht="12.75" thickBot="1">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1"/>
+    <row r="4" spans="1:17" ht="12.75" thickBot="1">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1128,8 +1129,11 @@
       <c r="P4" s="16">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="Q4" s="16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1155,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
@@ -1200,8 +1204,11 @@
       <c r="P6" s="19">
         <v>17.605458686851609</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="Q6" s="19">
+        <v>17.329176155522759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -1250,8 +1257,11 @@
       <c r="P7" s="21">
         <v>23.512267196507903</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="Q7" s="21">
+        <v>23.227186252688906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
@@ -1300,8 +1310,11 @@
       <c r="P8" s="21">
         <v>11.567974926285048</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="Q8" s="21">
+        <v>11.304378506156723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
@@ -1350,8 +1363,11 @@
       <c r="P9" s="19">
         <v>13.890397233831612</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="Q9" s="19">
+        <v>13.542191640867934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
@@ -1400,8 +1416,11 @@
       <c r="P10" s="21">
         <v>15.251616282073513</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+      <c r="Q10" s="21">
+        <v>15.185712948420582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="20" t="s">
         <v>31</v>
       </c>
@@ -1450,8 +1469,11 @@
       <c r="P11" s="21">
         <v>12.556147135845718</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="Q11" s="21">
+        <v>11.93491403132237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>35</v>
       </c>
@@ -1500,8 +1522,11 @@
       <c r="P12" s="19">
         <v>11.189871602516233</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
+      <c r="Q12" s="19">
+        <v>10.892014843083869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
@@ -1550,8 +1575,11 @@
       <c r="P13" s="21">
         <v>14.33643342077432</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1">
+      <c r="Q13" s="21">
+        <v>13.914495950022388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
@@ -1600,8 +1628,11 @@
       <c r="P14" s="21">
         <v>8.0816351285783607</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
+      <c r="Q14" s="21">
+        <v>7.9107336164543254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1681,11 @@
       <c r="P15" s="19">
         <v>11.627388629676959</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1">
+      <c r="Q15" s="19">
+        <v>11.095516970262546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1700,8 +1734,11 @@
       <c r="P16" s="21">
         <v>16.762096893820274</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1">
+      <c r="Q16" s="21">
+        <v>16.096076673183497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
@@ -1750,8 +1787,11 @@
       <c r="P17" s="21">
         <v>6.4749486469590067</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1">
+      <c r="Q17" s="21">
+        <v>6.0973817989480183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>39</v>
       </c>
@@ -1800,8 +1840,11 @@
       <c r="P18" s="19">
         <v>11.869705657244412</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1">
+      <c r="Q18" s="19">
+        <v>11.439814399425766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>29</v>
       </c>
@@ -1850,8 +1893,11 @@
       <c r="P19" s="21">
         <v>17.166257166257168</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1">
+      <c r="Q19" s="21">
+        <v>16.937053861129137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>31</v>
       </c>
@@ -1900,8 +1946,11 @@
       <c r="P20" s="21">
         <v>6.6785253302338123</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1">
+      <c r="Q20" s="21">
+        <v>6.0771801883925853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>42</v>
       </c>
@@ -1950,8 +1999,11 @@
       <c r="P21" s="19">
         <v>13.680949038807196</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1">
+      <c r="Q21" s="19">
+        <v>13.704201324247309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>29</v>
       </c>
@@ -2000,8 +2052,11 @@
       <c r="P22" s="21">
         <v>15.666264437166006</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1">
+      <c r="Q22" s="21">
+        <v>15.910317759892198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>31</v>
       </c>
@@ -2050,8 +2105,11 @@
       <c r="P23" s="21">
         <v>11.723106215150278</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1">
+      <c r="Q23" s="21">
+        <v>11.532658331013929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>45</v>
       </c>
@@ -2100,8 +2158,11 @@
       <c r="P24" s="19">
         <v>9.9813900091039063</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1">
+      <c r="Q24" s="19">
+        <v>9.2370753110296455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
@@ -2150,8 +2211,11 @@
       <c r="P25" s="21">
         <v>12.54103500424182</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1">
+      <c r="Q25" s="21">
+        <v>12.171035849895416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>31</v>
       </c>
@@ -2200,8 +2264,11 @@
       <c r="P26" s="21">
         <v>7.4662568682314392</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1">
+      <c r="Q26" s="21">
+        <v>6.3601866607590773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>48</v>
       </c>
@@ -2250,8 +2317,11 @@
       <c r="P27" s="19">
         <v>10.470645699175261</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1">
+      <c r="Q27" s="19">
+        <v>10.295884774419832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>29</v>
       </c>
@@ -2300,8 +2370,11 @@
       <c r="P28" s="21">
         <v>15.512094411740089</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1">
+      <c r="Q28" s="21">
+        <v>15.118774702834726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>31</v>
       </c>
@@ -2350,8 +2423,11 @@
       <c r="P29" s="21">
         <v>5.366655556748146</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1">
+      <c r="Q29" s="21">
+        <v>5.4090100770598699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>51</v>
       </c>
@@ -2400,8 +2476,11 @@
       <c r="P30" s="19">
         <v>21.623623197012517</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1">
+      <c r="Q30" s="19">
+        <v>21.029655159987541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="20" t="s">
         <v>29</v>
       </c>
@@ -2450,8 +2529,11 @@
       <c r="P31" s="21">
         <v>31.61727133367399</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1">
+      <c r="Q31" s="21">
+        <v>30.807591165880165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
@@ -2500,8 +2582,11 @@
       <c r="P32" s="21">
         <v>9.5604505747835411</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1">
+      <c r="Q32" s="21">
+        <v>9.1837470446929697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>54</v>
       </c>
@@ -2550,8 +2635,11 @@
       <c r="P33" s="19">
         <v>21.036722921447215</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1">
+      <c r="Q33" s="19">
+        <v>20.641438847351516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>29</v>
       </c>
@@ -2600,8 +2688,11 @@
       <c r="P34" s="21">
         <v>29.087239037002597</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1">
+      <c r="Q34" s="21">
+        <v>28.680154895155621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
@@ -2650,8 +2741,11 @@
       <c r="P35" s="21">
         <v>13.358066487477489</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1">
+      <c r="Q35" s="21">
+        <v>12.958617747440274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2667,7 +2761,7 @@
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="1:16" ht="24.75" customHeight="1">
+    <row r="37" spans="1:17" ht="21" customHeight="1">
       <c r="A37" s="23" t="s">
         <v>21</v>
       </c>
@@ -2689,7 +2783,7 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1">
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>27</v>
       </c>
@@ -2738,8 +2832,11 @@
       <c r="P38" s="19">
         <v>2.8802473574050205</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1">
+      <c r="Q38" s="19">
+        <v>2.9154233996238434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="20" t="s">
         <v>29</v>
       </c>
@@ -2788,8 +2885,11 @@
       <c r="P39" s="21">
         <v>1.5264420238765892</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1">
+      <c r="Q39" s="21">
+        <v>1.5915844969722592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="20" t="s">
         <v>31</v>
       </c>
@@ -2838,8 +2938,11 @@
       <c r="P40" s="21">
         <v>4.2640026802302557</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1">
+      <c r="Q40" s="21">
+        <v>4.2677204247962459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>33</v>
       </c>
@@ -2888,8 +2991,11 @@
       <c r="P41" s="19">
         <v>3.2755413401343145</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1">
+      <c r="Q41" s="19">
+        <v>3.3941189175846218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="20" t="s">
         <v>29</v>
       </c>
@@ -2938,8 +3044,11 @@
       <c r="P42" s="21">
         <v>0.70773161401733242</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1">
+      <c r="Q42" s="21">
+        <v>0.83209386018742915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="20" t="s">
         <v>31</v>
       </c>
@@ -2988,8 +3097,11 @@
       <c r="P43" s="21">
         <v>5.7924767173652896</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1">
+      <c r="Q43" s="21">
+        <v>5.8996450041195798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>35</v>
       </c>
@@ -3038,8 +3150,11 @@
       <c r="P44" s="19">
         <v>2.4256163391957477</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1">
+      <c r="Q44" s="19">
+        <v>2.6724737450040834</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="20" t="s">
         <v>29</v>
       </c>
@@ -3088,8 +3203,11 @@
       <c r="P45" s="21">
         <v>0.84422252477793103</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1">
+      <c r="Q45" s="21">
+        <v>1.0251199616484532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="20" t="s">
         <v>31</v>
       </c>
@@ -3138,8 +3256,11 @@
       <c r="P46" s="21">
         <v>3.9877486656962642</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1">
+      <c r="Q46" s="21">
+        <v>4.2973722089385342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>37</v>
       </c>
@@ -3188,8 +3309,11 @@
       <c r="P47" s="19">
         <v>4.2163214360010697</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1">
+      <c r="Q47" s="19">
+        <v>4.0597835271987126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>29</v>
       </c>
@@ -3238,8 +3362,11 @@
       <c r="P48" s="21">
         <v>2.2992256801257902</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1">
+      <c r="Q48" s="21">
+        <v>2.3519381440268123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>31</v>
       </c>
@@ -3288,8 +3415,11 @@
       <c r="P49" s="21">
         <v>6.1400375100473346</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1">
+      <c r="Q49" s="21">
+        <v>5.766800858041198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>39</v>
       </c>
@@ -3338,8 +3468,11 @@
       <c r="P50" s="19">
         <v>2.3025931739463203</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1">
+      <c r="Q50" s="19">
+        <v>2.3392337567453247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15" customHeight="1">
       <c r="A51" s="20" t="s">
         <v>29</v>
       </c>
@@ -3388,8 +3521,11 @@
       <c r="P51" s="21">
         <v>1.1793611793611793</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1">
+      <c r="Q51" s="21">
+        <v>1.3627514600908501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15" customHeight="1">
       <c r="A52" s="20" t="s">
         <v>31</v>
       </c>
@@ -3438,8 +3574,11 @@
       <c r="P52" s="21">
         <v>3.4034792548306934</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1">
+      <c r="Q52" s="21">
+        <v>3.2918059353793172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>42</v>
       </c>
@@ -3488,8 +3627,11 @@
       <c r="P53" s="19">
         <v>3.2045466217025864</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1">
+      <c r="Q53" s="19">
+        <v>3.1005587716955225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15" customHeight="1">
       <c r="A54" s="20" t="s">
         <v>29</v>
       </c>
@@ -3538,8 +3680,11 @@
       <c r="P54" s="21">
         <v>0.93776935011204965</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="15" customHeight="1">
+      <c r="Q54" s="21">
+        <v>0.93351354203449133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>31</v>
       </c>
@@ -3588,8 +3733,11 @@
       <c r="P55" s="21">
         <v>5.4399564803481573</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="15" customHeight="1">
+      <c r="Q55" s="21">
+        <v>5.2336428684624412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>45</v>
       </c>
@@ -3638,8 +3786,11 @@
       <c r="P56" s="19">
         <v>1.6818459355999253</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="15" customHeight="1">
+      <c r="Q56" s="19">
+        <v>1.5876223190832204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>29</v>
       </c>
@@ -3688,8 +3839,11 @@
       <c r="P57" s="21">
         <v>0.66393714728339048</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="15" customHeight="1">
+      <c r="Q57" s="21">
+        <v>0.58304363352792421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>31</v>
       </c>
@@ -3738,8 +3892,11 @@
       <c r="P58" s="21">
         <v>2.6820534381025558</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="15" customHeight="1">
+      <c r="Q58" s="21">
+        <v>2.5726597728913125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>48</v>
       </c>
@@ -3788,8 +3945,11 @@
       <c r="P59" s="19">
         <v>2.2363577498685321</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="15" customHeight="1">
+      <c r="Q59" s="19">
+        <v>2.3554481700191934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15" customHeight="1">
       <c r="A60" s="20" t="s">
         <v>29</v>
       </c>
@@ -3838,8 +3998,11 @@
       <c r="P60" s="21">
         <v>1.6739670228496499</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" customHeight="1">
+      <c r="Q60" s="21">
+        <v>1.6636136613760097</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1">
       <c r="A61" s="20" t="s">
         <v>31</v>
       </c>
@@ -3888,8 +4051,11 @@
       <c r="P61" s="21">
         <v>2.8057251858086794</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" customHeight="1">
+      <c r="Q61" s="21">
+        <v>3.0564611736810905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4104,11 @@
       <c r="P62" s="19">
         <v>1.5894585710243447</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="15" customHeight="1">
+      <c r="Q62" s="19">
+        <v>1.5615655810353866</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15" customHeight="1">
       <c r="A63" s="20" t="s">
         <v>29</v>
       </c>
@@ -3988,8 +4157,11 @@
       <c r="P63" s="21">
         <v>1.9002299437915176</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="15" customHeight="1">
+      <c r="Q63" s="21">
+        <v>1.8638044477578746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15" customHeight="1">
       <c r="A64" s="20" t="s">
         <v>31</v>
       </c>
@@ -4038,8 +4210,11 @@
       <c r="P64" s="21">
         <v>1.2143314238132321</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="15" customHeight="1">
+      <c r="Q64" s="21">
+        <v>1.1954050905282172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>54</v>
       </c>
@@ -4088,8 +4263,11 @@
       <c r="P65" s="19">
         <v>3.8475059027383725</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="15" customHeight="1">
+      <c r="Q65" s="19">
+        <v>3.8174391527466476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15" customHeight="1">
       <c r="A66" s="20" t="s">
         <v>29</v>
       </c>
@@ -4138,8 +4316,11 @@
       <c r="P66" s="21">
         <v>3.0618146354739575</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1">
+      <c r="Q66" s="21">
+        <v>2.901494269548818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15" customHeight="1">
       <c r="A67" s="20" t="s">
         <v>31</v>
       </c>
@@ -4188,8 +4369,11 @@
       <c r="P67" s="21">
         <v>4.5969054713991353</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="15" customHeight="1">
+      <c r="Q67" s="21">
+        <v>4.6928327645051189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="14.25" customHeight="1">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -4206,7 +4390,7 @@
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" spans="1:16" ht="15" customHeight="1">
+    <row r="69" spans="1:17" ht="15" customHeight="1">
       <c r="A69" s="23" t="s">
         <v>23</v>
       </c>
@@ -4229,7 +4413,7 @@
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>27</v>
       </c>
@@ -4278,8 +4462,11 @@
       <c r="P70" s="19">
         <v>0.50301310533861732</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="15" customHeight="1">
+      <c r="Q70" s="19">
+        <v>0.50545175798076203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15" customHeight="1">
       <c r="A71" s="20" t="s">
         <v>29</v>
       </c>
@@ -4328,8 +4515,11 @@
       <c r="P71" s="21">
         <v>0.846149261854242</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="15" customHeight="1">
+      <c r="Q71" s="21">
+        <v>0.85934510166384137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15" customHeight="1">
       <c r="A72" s="20" t="s">
         <v>31</v>
       </c>
@@ -4378,8 +4568,11 @@
       <c r="P72" s="21">
         <v>0.15228581000822344</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q72" s="21">
+        <v>0.14395088734431782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>33</v>
       </c>
@@ -4428,8 +4621,11 @@
       <c r="P73" s="19">
         <v>0.52548791552956919</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="15" customHeight="1">
+      <c r="Q73" s="19">
+        <v>0.42855036838189664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15" customHeight="1">
       <c r="A74" s="20" t="s">
         <v>29</v>
       </c>
@@ -4478,8 +4674,11 @@
       <c r="P74" s="21">
         <v>0.88466451752166553</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="15" customHeight="1">
+      <c r="Q74" s="21">
+        <v>0.72808212766400049</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="15" customHeight="1">
       <c r="A75" s="20" t="s">
         <v>31</v>
       </c>
@@ -4528,8 +4727,11 @@
       <c r="P75" s="21">
         <v>0.17342744662770332</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q75" s="21">
+        <v>0.13562402308320873</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>35</v>
       </c>
@@ -4578,8 +4780,11 @@
       <c r="P76" s="19">
         <v>0.28985352480955479</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="15" customHeight="1">
+      <c r="Q76" s="19">
+        <v>0.36681012186330564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15" customHeight="1">
       <c r="A77" s="20" t="s">
         <v>29</v>
       </c>
@@ -4628,8 +4833,11 @@
       <c r="P77" s="21">
         <v>0.52188301531726655</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="15" customHeight="1">
+      <c r="Q77" s="21">
+        <v>0.70853879702172495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="15" customHeight="1">
       <c r="A78" s="20" t="s">
         <v>31</v>
       </c>
@@ -4678,8 +4886,11 @@
       <c r="P78" s="21">
         <v>6.0650169820475497E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q78" s="21">
+        <v>2.9739600061858367E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>37</v>
       </c>
@@ -4728,8 +4939,11 @@
       <c r="P79" s="19">
         <v>0.27861154863443194</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="15" customHeight="1">
+      <c r="Q79" s="19">
+        <v>0.29392097934470318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="15" customHeight="1">
       <c r="A80" s="20" t="s">
         <v>29</v>
       </c>
@@ -4778,8 +4992,11 @@
       <c r="P80" s="21">
         <v>0.5562642774497879</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="15" customHeight="1">
+      <c r="Q80" s="21">
+        <v>0.58798453600670308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15" customHeight="1">
       <c r="A81" s="20" t="s">
         <v>31</v>
       </c>
@@ -4828,8 +5045,11 @@
       <c r="P81" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q81" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>39</v>
       </c>
@@ -4878,8 +5098,11 @@
       <c r="P82" s="19">
         <v>0.71347957502562043</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="15" customHeight="1">
+      <c r="Q82" s="19">
+        <v>0.70497455682735821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15" customHeight="1">
       <c r="A83" s="20" t="s">
         <v>29</v>
       </c>
@@ -4928,8 +5151,11 @@
       <c r="P83" s="21">
         <v>1.375921375921376</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="15" customHeight="1">
+      <c r="Q83" s="21">
+        <v>1.3627514600908501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>31</v>
       </c>
@@ -4978,8 +5204,11 @@
       <c r="P84" s="21">
         <v>6.4216589713786659E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q84" s="21">
+        <v>6.3303960295756107E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="17" t="s">
         <v>42</v>
       </c>
@@ -5028,8 +5257,11 @@
       <c r="P85" s="19">
         <v>0.36290805758597666</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="15" customHeight="1">
+      <c r="Q85" s="19">
+        <v>0.38253647183256445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="15" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>29</v>
       </c>
@@ -5078,8 +5310,11 @@
       <c r="P86" s="21">
         <v>0.64816410963626969</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="15" customHeight="1">
+      <c r="Q86" s="21">
+        <v>0.67645908843079072</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="15" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>31</v>
       </c>
@@ -5128,8 +5363,11 @@
       <c r="P87" s="21">
         <v>8.159934720522237E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q87" s="21">
+        <v>9.322010198279157E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>45</v>
       </c>
@@ -5178,8 +5416,11 @@
       <c r="P88" s="19">
         <v>0.87748483596517857</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="15" customHeight="1">
+      <c r="Q88" s="19">
+        <v>0.86597581040902927</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>29</v>
       </c>
@@ -5228,8 +5469,11 @@
       <c r="P89" s="21">
         <v>1.475415882851979</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" ht="15" customHeight="1">
+      <c r="Q89" s="21">
+        <v>1.4576090838198104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>31</v>
       </c>
@@ -5278,8 +5522,11 @@
       <c r="P90" s="21">
         <v>0.28995172303811417</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q90" s="21">
+        <v>0.28585108587681246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="17" t="s">
         <v>48</v>
       </c>
@@ -5328,8 +5575,11 @@
       <c r="P91" s="19">
         <v>0.30878579809900231</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" ht="15" customHeight="1">
+      <c r="Q91" s="19">
+        <v>0.31283296008067407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15" customHeight="1">
       <c r="A92" s="20" t="s">
         <v>29</v>
       </c>
@@ -5378,8 +5628,11 @@
       <c r="P92" s="21">
         <v>0.57658864120376829</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" ht="15" customHeight="1">
+      <c r="Q92" s="21">
+        <v>0.60328847060888258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="15" customHeight="1">
       <c r="A93" s="20" t="s">
         <v>31</v>
       </c>
@@ -5428,8 +5681,11 @@
       <c r="P93" s="21">
         <v>3.7660740749109793E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q93" s="21">
+        <v>1.8524007113218732E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="17" t="s">
         <v>51</v>
       </c>
@@ -5478,8 +5734,11 @@
       <c r="P94" s="19">
         <v>0.13973262162851385</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" ht="15" customHeight="1">
+      <c r="Q94" s="19">
+        <v>0.13728049064047354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="15" customHeight="1">
       <c r="A95" s="20" t="s">
         <v>29</v>
       </c>
@@ -5528,8 +5787,11 @@
       <c r="P95" s="21">
         <v>0.23952478283086356</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" ht="15" customHeight="1">
+      <c r="Q95" s="21">
+        <v>0.2192711115009264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="15" customHeight="1">
       <c r="A96" s="20" t="s">
         <v>31</v>
       </c>
@@ -5578,8 +5840,11 @@
       <c r="P96" s="21">
         <v>1.9275101965289396E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q96" s="21">
+        <v>3.794936795327674E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="17" t="s">
         <v>54</v>
       </c>
@@ -5628,8 +5893,11 @@
       <c r="P97" s="19">
         <v>0.44287837729362561</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" ht="15" customHeight="1">
+      <c r="Q97" s="19">
+        <v>0.40901133779428367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="15" customHeight="1">
       <c r="A98" s="20" t="s">
         <v>29</v>
       </c>
@@ -5678,8 +5946,11 @@
       <c r="P98" s="21">
         <v>0.79380379438213722</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" ht="15" customHeight="1">
+      <c r="Q98" s="21">
+        <v>0.72537356738720449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="15" customHeight="1">
       <c r="A99" s="20" t="s">
         <v>31</v>
       </c>
@@ -5728,8 +5999,11 @@
       <c r="P99" s="21">
         <v>0.10816248167997966</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" ht="15" customHeight="1">
+      <c r="Q99" s="21">
+        <v>0.10665529010238908</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="14.25" customHeight="1">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -5745,7 +6019,7 @@
       <c r="M100" s="21"/>
       <c r="N100" s="21"/>
     </row>
-    <row r="101" spans="1:16" ht="25.5" customHeight="1">
+    <row r="101" spans="1:17" ht="25.5" customHeight="1">
       <c r="A101" s="23" t="s">
         <v>25</v>
       </c>
@@ -5767,7 +6041,7 @@
       <c r="M101" s="21"/>
       <c r="N101" s="21"/>
     </row>
-    <row r="102" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="17" t="s">
         <v>27</v>
       </c>
@@ -5816,8 +6090,11 @@
       <c r="P102" s="19">
         <v>38.882628854480011</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" ht="15" customHeight="1">
+      <c r="Q102" s="19">
+        <v>38.069453539628391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="15" customHeight="1">
       <c r="A103" s="20" t="s">
         <v>29</v>
       </c>
@@ -5866,8 +6143,11 @@
       <c r="P103" s="21">
         <v>75.610886033533376</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" ht="15" customHeight="1">
+      <c r="Q103" s="21">
+        <v>74.108153140270815</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="15" customHeight="1">
       <c r="A104" s="20" t="s">
         <v>31</v>
       </c>
@@ -5916,8 +6196,11 @@
       <c r="P104" s="21">
         <v>1.3418391183743461</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q104" s="21">
+        <v>1.2560420562396359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="17" t="s">
         <v>33</v>
       </c>
@@ -5966,8 +6249,11 @@
       <c r="P105" s="19">
         <v>54.80838958973407</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" ht="15" customHeight="1">
+      <c r="Q105" s="19">
+        <v>52.985967546737704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="15" customHeight="1">
       <c r="A106" s="20" t="s">
         <v>29</v>
       </c>
@@ -6016,8 +6302,11 @@
       <c r="P106" s="21">
         <v>109.3799209463787</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" ht="15" customHeight="1">
+      <c r="Q106" s="21">
+        <v>105.74526139881912</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="15" customHeight="1">
       <c r="A107" s="20" t="s">
         <v>31</v>
       </c>
@@ -6066,8 +6355,11 @@
       <c r="P107" s="21">
         <v>1.3180485943705449</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q107" s="21">
+        <v>1.3901462366028894</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="17" t="s">
         <v>35</v>
       </c>
@@ -6116,8 +6408,11 @@
       <c r="P108" s="19">
         <v>37.391104700432571</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" ht="15" customHeight="1">
+      <c r="Q108" s="19">
+        <v>36.561237452660912</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="15" customHeight="1">
       <c r="A109" s="20" t="s">
         <v>29</v>
       </c>
@@ -6166,8 +6461,11 @@
       <c r="P109" s="21">
         <v>74.214834678205392</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" ht="15" customHeight="1">
+      <c r="Q109" s="21">
+        <v>72.768441983486525</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="15" customHeight="1">
       <c r="A110" s="20" t="s">
         <v>31</v>
       </c>
@@ -6216,8 +6514,11 @@
       <c r="P110" s="21">
         <v>1.0158903444929646</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q110" s="21">
+        <v>0.84757860176296351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="17" t="s">
         <v>37</v>
       </c>
@@ -6266,8 +6567,11 @@
       <c r="P111" s="19">
         <v>32.78329222265149</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" ht="15" customHeight="1">
+      <c r="Q111" s="19">
+        <v>32.680338890889182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="15" customHeight="1">
       <c r="A112" s="20" t="s">
         <v>29</v>
       </c>
@@ -6316,8 +6620,11 @@
       <c r="P112" s="21">
         <v>64.26706618803216</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" ht="15" customHeight="1">
+      <c r="Q112" s="21">
+        <v>64.20056152523189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="15" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>31</v>
       </c>
@@ -6366,8 +6673,11 @@
       <c r="P113" s="21">
         <v>1.1907951534637253</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q113" s="21">
+        <v>1.1753989010020276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="17" t="s">
         <v>39</v>
       </c>
@@ -6416,8 +6726,11 @@
       <c r="P114" s="19">
         <v>37.619832137714532</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" ht="15" customHeight="1">
+      <c r="Q114" s="19">
+        <v>37.395695809887584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="15" customHeight="1">
       <c r="A115" s="20" t="s">
         <v>29</v>
       </c>
@@ -6466,8 +6779,11 @@
       <c r="P115" s="21">
         <v>74.758394758394758</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" ht="15" customHeight="1">
+      <c r="Q115" s="21">
+        <v>74.432186891628817</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="15" customHeight="1">
       <c r="A116" s="20" t="s">
         <v>31</v>
       </c>
@@ -6516,8 +6832,11 @@
       <c r="P116" s="21">
         <v>1.2201152045619466</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q116" s="21">
+        <v>1.2660792059151222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="17" t="s">
         <v>42</v>
       </c>
@@ -6566,8 +6885,11 @@
       <c r="P117" s="19">
         <v>38.742146977763326</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" ht="15" customHeight="1">
+      <c r="Q117" s="19">
+        <v>38.736851147676525</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="15" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>29</v>
       </c>
@@ -6616,8 +6938,11 @@
       <c r="P118" s="21">
         <v>76.276504051025682</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" ht="15" customHeight="1">
+      <c r="Q118" s="21">
+        <v>76.372231083836283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="15" customHeight="1">
       <c r="A119" s="20" t="s">
         <v>31</v>
       </c>
@@ -6666,8 +6991,11 @@
       <c r="P119" s="21">
         <v>1.7271861825105399</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q119" s="21">
+        <v>1.6912789931163612</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="17" t="s">
         <v>45</v>
       </c>
@@ -6716,8 +7044,11 @@
       <c r="P120" s="19">
         <v>35.794068933746239</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" ht="15" customHeight="1">
+      <c r="Q120" s="19">
+        <v>35.288514274167945</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="15" customHeight="1">
       <c r="A121" s="20" t="s">
         <v>29</v>
       </c>
@@ -6766,8 +7097,11 @@
       <c r="P121" s="21">
         <v>71.262587141750586</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" ht="15" customHeight="1">
+      <c r="Q121" s="21">
+        <v>70.475399202687839</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="15" customHeight="1">
       <c r="A122" s="20" t="s">
         <v>31</v>
       </c>
@@ -6816,8 +7150,11 @@
       <c r="P122" s="21">
         <v>0.94234309987387099</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q122" s="21">
+        <v>0.78609048616123434</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="17" t="s">
         <v>48</v>
       </c>
@@ -6866,8 +7203,11 @@
       <c r="P123" s="19">
         <v>23.804577889814002</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" ht="15" customHeight="1">
+      <c r="Q123" s="19">
+        <v>23.112835168313332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="15" customHeight="1">
       <c r="A124" s="20" t="s">
         <v>29</v>
       </c>
@@ -6916,8 +7256,11 @@
       <c r="P124" s="21">
         <v>46.61068176956914</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" ht="15" customHeight="1">
+      <c r="Q124" s="21">
+        <v>45.264916764472524</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="15" customHeight="1">
       <c r="A125" s="20" t="s">
         <v>31</v>
       </c>
@@ -6966,8 +7309,11 @@
       <c r="P125" s="21">
         <v>0.71555407423308603</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q125" s="21">
+        <v>0.6668642560758743</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="17" t="s">
         <v>51</v>
       </c>
@@ -7016,8 +7362,11 @@
       <c r="P126" s="19">
         <v>27.099395307079902</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" ht="15" customHeight="1">
+      <c r="Q126" s="19">
+        <v>25.980332853709623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="15" customHeight="1">
       <c r="A127" s="20" t="s">
         <v>29</v>
       </c>
@@ -7066,8 +7415,11 @@
       <c r="P127" s="21">
         <v>48.479816044966789</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" ht="15" customHeight="1">
+      <c r="Q127" s="21">
+        <v>46.469813415946334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="15" customHeight="1">
       <c r="A128" s="20" t="s">
         <v>31</v>
       </c>
@@ -7116,8 +7468,11 @@
       <c r="P128" s="21">
         <v>1.2914318316743894</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="Q128" s="21">
+        <v>1.1574557225749404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="17" t="s">
         <v>54</v>
       </c>
@@ -7166,8 +7521,11 @@
       <c r="P129" s="19">
         <v>37.063384199760293</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" ht="15" customHeight="1">
+      <c r="Q129" s="19">
+        <v>34.984103092671063</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="15" customHeight="1">
       <c r="A130" s="20" t="s">
         <v>29</v>
       </c>
@@ -7216,8 +7574,11 @@
       <c r="P130" s="21">
         <v>75.127859111166558</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="Q130" s="21">
+        <v>70.863417737057659</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A131" s="25" t="s">
         <v>31</v>
       </c>
@@ -7266,9 +7627,12 @@
       <c r="P131" s="26">
         <v>0.75713737175985762</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" ht="15" customHeight="1"/>
-    <row r="133" spans="1:16" ht="15" customHeight="1"/>
+      <c r="Q131" s="26">
+        <v>0.69325938566552903</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="15" customHeight="1"/>
+    <row r="133" spans="1:17" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
